--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_捷豹组.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_捷豹组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="77">
   <si>
     <t>No</t>
   </si>
@@ -118,10 +118,6 @@
   <si>
     <t>修正负责人</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是否影响数据</t>
@@ -478,6 +474,10 @@
     <rPh sb="0" eb="1">
       <t>zai'ce</t>
     </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上线</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -721,7 +721,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1211,6 +1211,30 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1331,7 +1355,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="173">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -1417,6 +1441,10 @@
     <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -1497,6 +1525,10 @@
     <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1842,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1924,7 +1956,7 @@
         <v>18</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>14</v>
@@ -1935,13 +1967,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>15</v>
@@ -1950,30 +1982,28 @@
         <v>42504</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="13">
-        <v>42504</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H2" s="13"/>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="14"/>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
@@ -1983,13 +2013,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>15</v>
@@ -2005,23 +2035,23 @@
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="14"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
@@ -2031,13 +2061,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>15</v>
@@ -2053,23 +2083,23 @@
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="14"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
@@ -2079,13 +2109,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>15</v>
@@ -2101,23 +2131,23 @@
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="14"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
@@ -2127,13 +2157,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>15</v>
@@ -2149,23 +2179,23 @@
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="14"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S6" s="18"/>
       <c r="T6" s="10"/>
@@ -2175,13 +2205,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>15</v>
@@ -2197,26 +2227,26 @@
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="14"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S7" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T7" s="10"/>
     </row>
@@ -2225,13 +2255,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>15</v>
@@ -2247,23 +2277,23 @@
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="14"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
@@ -2273,13 +2303,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>15</v>
@@ -2288,28 +2318,28 @@
         <v>42504</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="12"/>
       <c r="J9" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="14"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
@@ -2319,13 +2349,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>15</v>
@@ -2341,23 +2371,23 @@
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="14"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
@@ -2367,13 +2397,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>15</v>
@@ -2389,23 +2419,23 @@
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="14"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
@@ -2415,45 +2445,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="13">
-        <v>42504</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="13">
-        <v>42504</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="12"/>
       <c r="J12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M12" s="14"/>
       <c r="N12" s="13"/>
       <c r="O12" s="14"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
@@ -2463,13 +2485,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>15</v>
@@ -2485,23 +2507,25 @@
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="O13" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
@@ -2511,13 +2535,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>15</v>
@@ -2533,23 +2557,23 @@
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
@@ -2559,13 +2583,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>15</v>
@@ -2574,30 +2598,28 @@
         <v>42504</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="13">
-        <v>42504</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H15" s="13"/>
       <c r="I15" s="12"/>
       <c r="J15" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>

--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_捷豹组.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_捷豹组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -164,13 +164,6 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>li</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客APP</t>
-    <rPh sb="0" eb="1">
-      <t>zu k</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -232,10 +225,6 @@
     <rPh sb="5" eb="6">
       <t>fang dong</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -378,22 +367,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东APP前端架构升级</t>
-    <rPh sb="0" eb="1">
-      <t>fang'dong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>qian'duan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jia'gou</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>sheng'ji</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>捷豹组/架构组</t>
     <rPh sb="0" eb="1">
       <t>jie bao zu</t>
@@ -437,13 +410,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>杨正权</t>
-    <rPh sb="0" eb="1">
-      <t>yang'zheng'quan</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>有</t>
     <rPh sb="0" eb="1">
       <t>you</t>
@@ -470,13 +436,94 @@
     <t>通过</t>
   </si>
   <si>
-    <t>在测</t>
+    <t>过长内容短信修改+删除账单推送短信发送</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在测</t>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
     <rPh sb="0" eb="1">
-      <t>zai'ce</t>
+      <t>yi'chu'li</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上线</t>
+    <rPh sb="0" eb="1">
+      <t>yi'shang'x</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约起租日期无法二次修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款金额大于余额报错提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已补录列表可对下期收租日进行时间筛选</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户管理添加租客姓名查询条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复支付</t>
+    <rPh sb="0" eb="1">
+      <t>chong'fu'zhi'fu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP</t>
+    <rPh sb="0" eb="1">
+      <t>zu'k'APP</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC/房东APP/租客APP/租客PC/BS</t>
+    <rPh sb="0" eb="1">
+      <t>fang dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang'dong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zu'k</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zu'k</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同整体调整(生成算法)</t>
+    <rPh sb="7" eb="8">
+      <t>sheng'c</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>suan'f</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <rPh sb="0" eb="1">
+      <t>neng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP/PayAPI</t>
+    <rPh sb="0" eb="1">
+      <t>zu k</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -632,7 +679,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -709,19 +756,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1211,8 +1247,272 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,12 +1603,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1330,8 +1624,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="253">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -1417,6 +1714,50 @@
     <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -1497,6 +1838,50 @@
     <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1840,10 +2225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T217"/>
+  <dimension ref="A1:T216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1934,39 +2319,39 @@
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>45</v>
+      <c r="B2" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="13">
-        <v>42504</v>
+        <v>42513</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="13">
-        <v>42504</v>
+        <v>42513</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="14"/>
@@ -1982,30 +2367,30 @@
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>46</v>
+      <c r="B3" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="13">
-        <v>42504</v>
+      <c r="F3" s="37">
+        <v>42513</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="13">
-        <v>42504</v>
+      <c r="H3" s="37">
+        <v>42513</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>33</v>
@@ -2014,10 +2399,14 @@
         <v>35</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22" t="s">
@@ -2030,30 +2419,30 @@
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>48</v>
+      <c r="B4" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>33</v>
@@ -2064,8 +2453,12 @@
       <c r="M4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="N4" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22" t="s">
@@ -2078,30 +2471,30 @@
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>50</v>
+      <c r="B5" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>33</v>
@@ -2112,8 +2505,12 @@
       <c r="M5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="N5" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22" t="s">
@@ -2126,30 +2523,30 @@
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>51</v>
+      <c r="B6" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>55</v>
+      <c r="D6" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>33</v>
@@ -2160,8 +2557,12 @@
       <c r="M6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="N6" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22" t="s">
@@ -2174,30 +2575,30 @@
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>52</v>
+      <c r="B7" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>33</v>
@@ -2208,15 +2609,19 @@
       <c r="M7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+      <c r="N7" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="34" t="s">
+      <c r="R7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="37" t="s">
-        <v>72</v>
+      <c r="S7" s="35" t="s">
+        <v>68</v>
       </c>
       <c r="T7" s="10"/>
     </row>
@@ -2224,30 +2629,30 @@
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>53</v>
+      <c r="B8" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>55</v>
+      <c r="D8" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>33</v>
@@ -2258,8 +2663,12 @@
       <c r="M8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="N8" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22" t="s">
@@ -2272,28 +2681,30 @@
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>54</v>
+      <c r="B9" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="13">
-        <v>42504</v>
+        <v>42513</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="H9" s="13">
+        <v>42513</v>
+      </c>
       <c r="I9" s="12"/>
       <c r="J9" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>33</v>
@@ -2302,14 +2713,18 @@
         <v>35</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="34" t="s">
-        <v>71</v>
+      <c r="R9" s="32" t="s">
+        <v>67</v>
       </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
@@ -2318,30 +2733,30 @@
       <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>57</v>
+      <c r="B10" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>33</v>
@@ -2352,8 +2767,12 @@
       <c r="M10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="N10" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22" t="s">
@@ -2366,30 +2785,30 @@
       <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>59</v>
+      <c r="B11" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>33</v>
@@ -2400,8 +2819,12 @@
       <c r="M11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
+      <c r="N11" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22" t="s">
@@ -2414,30 +2837,30 @@
       <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>60</v>
+      <c r="B12" s="31" t="s">
+        <v>58</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>33</v>
@@ -2448,8 +2871,12 @@
       <c r="M12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+      <c r="N12" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22" t="s">
@@ -2462,30 +2889,30 @@
       <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>66</v>
+      <c r="B13" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>63</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>33</v>
@@ -2493,11 +2920,15 @@
       <c r="L13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="M13" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22" t="s">
@@ -2510,42 +2941,46 @@
       <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>63</v>
+      <c r="B14" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+      <c r="M14" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14" s="13">
+        <v>42510</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22" t="s">
@@ -2558,179 +2993,343 @@
       <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>64</v>
+      <c r="B15" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H15" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="14" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>35</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="S15" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="N15" s="13">
+        <v>42510</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="T15" s="10"/>
     </row>
     <row r="16" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="13">
+        <v>42513</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="13">
+        <v>42513</v>
+      </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
+      <c r="J16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="13">
+        <v>42515</v>
+      </c>
       <c r="O16" s="14"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="R16" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="13">
+        <v>42513</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="13">
+        <v>42513</v>
+      </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="13"/>
+      <c r="J17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="13">
+        <v>42515</v>
+      </c>
       <c r="O17" s="14"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S17" s="18"/>
       <c r="T17" s="10"/>
     </row>
     <row r="18" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="21">
+        <v>17</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="13">
+        <v>42513</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="13">
+        <v>42513</v>
+      </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="13"/>
+      <c r="J18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="13">
+        <v>42515</v>
+      </c>
       <c r="O18" s="14"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="R18" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S18" s="18"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>18</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="13">
+        <v>42513</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="13">
+        <v>42513</v>
+      </c>
       <c r="I19" s="12"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="13"/>
+      <c r="J19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="13">
+        <v>42515</v>
+      </c>
       <c r="O19" s="14"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="R19" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S19" s="18"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+    <row r="20" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="13">
+        <v>42513</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="13">
+        <v>42513</v>
+      </c>
       <c r="I20" s="12"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="13"/>
+      <c r="J20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="13">
+        <v>42515</v>
+      </c>
       <c r="O20" s="14"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="R20" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S20" s="18"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="J21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="M21" s="14"/>
       <c r="N21" s="13"/>
       <c r="O21" s="14"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="R21" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S21" s="18"/>
       <c r="T21" s="10"/>
     </row>
@@ -2895,7 +3494,7 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
       <c r="J29" s="14"/>
@@ -2961,7 +3560,7 @@
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="12"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="12"/>
       <c r="J32" s="14"/>
@@ -3549,25 +4148,25 @@
       <c r="T58" s="10"/>
     </row>
     <row r="59" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A59" s="21"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="12"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="14"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="17"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="18"/>
+      <c r="S59" s="17"/>
       <c r="T59" s="10"/>
     </row>
     <row r="60" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -3592,27 +4191,26 @@
       <c r="S60" s="17"/>
       <c r="T60" s="10"/>
     </row>
-    <row r="61" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A61" s="9"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="9"/>
+    <row r="61" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+      <c r="A61" s="7"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="17"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="4"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="10"/>
+      <c r="S61" s="4"/>
     </row>
     <row r="62" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
@@ -4753,7 +5351,7 @@
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
       <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
+      <c r="E116" s="7"/>
       <c r="F116" s="5"/>
       <c r="G116" s="7"/>
       <c r="H116" s="5"/>
@@ -4874,11 +5472,11 @@
       <c r="R121" s="7"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
-      <c r="D122" s="12"/>
+      <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="5"/>
       <c r="G122" s="7"/>
@@ -6150,9 +6748,6 @@
       <c r="M182" s="7"/>
       <c r="N182" s="5"/>
       <c r="O182" s="4"/>
-      <c r="P182" s="7"/>
-      <c r="Q182" s="7"/>
-      <c r="R182" s="7"/>
       <c r="S182" s="4"/>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.15">
@@ -6766,24 +7361,6 @@
       <c r="N216" s="5"/>
       <c r="O216" s="4"/>
       <c r="S216" s="4"/>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A217" s="7"/>
-      <c r="B217" s="4"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
-      <c r="E217" s="7"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="7"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="6"/>
-      <c r="J217" s="7"/>
-      <c r="K217" s="7"/>
-      <c r="L217" s="7"/>
-      <c r="M217" s="7"/>
-      <c r="N217" s="5"/>
-      <c r="O217" s="4"/>
-      <c r="S217" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_捷豹组.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_捷豹组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -757,7 +757,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="253">
+  <cellStyleXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1511,6 +1511,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1628,7 +1640,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="253">
+  <cellStyles count="257">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -1758,6 +1770,8 @@
     <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -1882,6 +1896,8 @@
     <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2227,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18:M20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3084,7 +3100,9 @@
       <c r="N16" s="13">
         <v>42515</v>
       </c>
-      <c r="O16" s="14"/>
+      <c r="O16" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="22" t="s">
@@ -3134,7 +3152,9 @@
       <c r="N17" s="13">
         <v>42515</v>
       </c>
-      <c r="O17" s="14"/>
+      <c r="O17" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="22" t="s">
@@ -3179,12 +3199,14 @@
         <v>35</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N18" s="13">
         <v>42515</v>
       </c>
-      <c r="O18" s="14"/>
+      <c r="O18" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="22" t="s">
@@ -3229,12 +3251,14 @@
         <v>35</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N19" s="13">
         <v>42515</v>
       </c>
-      <c r="O19" s="14"/>
+      <c r="O19" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="22" t="s">
@@ -3279,12 +3303,14 @@
         <v>35</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N20" s="13">
         <v>42515</v>
       </c>
-      <c r="O20" s="14"/>
+      <c r="O20" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="22" t="s">

--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_捷豹组.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_捷豹组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -225,10 +225,6 @@
     <rPh sb="5" eb="6">
       <t>fang dong</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在测</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -488,32 +484,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东PC/房东APP/租客APP/租客PC/BS</t>
-    <rPh sb="0" eb="1">
-      <t>fang dong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fang'dong</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zu'k</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zu'k</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同整体调整(生成算法)</t>
-    <rPh sb="7" eb="8">
-      <t>sheng'c</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>suan'f</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>能</t>
     <rPh sb="0" eb="1">
       <t>neng</t>
@@ -524,6 +494,40 @@
     <t>租客APP/PayAPI</t>
     <rPh sb="0" eb="1">
       <t>zu k</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并支付客户端没上，先保证原来支付测试通过</t>
+    <rPh sb="0" eb="1">
+      <t>he'bing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke'hu'd</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mei'shang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bao'z</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yuan'l</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>tong'guo</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -757,7 +761,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="257">
+  <cellStyleXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1523,6 +1527,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1640,7 +1650,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="257">
+  <cellStyles count="259">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -1772,6 +1782,7 @@
     <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -1898,6 +1909,7 @@
     <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="258" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2243,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16:O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2336,13 +2348,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>15</v>
@@ -2361,22 +2373,28 @@
         <v>40</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42516</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="18"/>
+      <c r="S2" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.25">
@@ -2384,13 +2402,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>15</v>
@@ -2421,7 +2439,7 @@
         <v>42513</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
@@ -2436,13 +2454,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>15</v>
@@ -2473,7 +2491,7 @@
         <v>42513</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
@@ -2488,7 +2506,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>31</v>
@@ -2525,7 +2543,7 @@
         <v>42513</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
@@ -2540,13 +2558,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>15</v>
@@ -2577,7 +2595,7 @@
         <v>42513</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
@@ -2592,13 +2610,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>15</v>
@@ -2629,7 +2647,7 @@
         <v>42513</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
@@ -2637,7 +2655,7 @@
         <v>34</v>
       </c>
       <c r="S7" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T7" s="10"/>
     </row>
@@ -2646,13 +2664,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>15</v>
@@ -2683,7 +2701,7 @@
         <v>42513</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
@@ -2698,13 +2716,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>15</v>
@@ -2713,14 +2731,14 @@
         <v>42513</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="13">
         <v>42513</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>33</v>
@@ -2735,12 +2753,12 @@
         <v>42513</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
@@ -2750,13 +2768,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>15</v>
@@ -2787,7 +2805,7 @@
         <v>42513</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
@@ -2802,13 +2820,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>15</v>
@@ -2839,7 +2857,7 @@
         <v>42513</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
@@ -2854,7 +2872,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>30</v>
@@ -2891,7 +2909,7 @@
         <v>42513</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
@@ -2906,13 +2924,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>15</v>
@@ -2937,13 +2955,13 @@
         <v>35</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N13" s="13">
         <v>42513</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
@@ -2958,13 +2976,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>15</v>
@@ -2980,22 +2998,22 @@
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>35</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N14" s="13">
         <v>42510</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
@@ -3010,13 +3028,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="D15" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>15</v>
@@ -3047,7 +3065,7 @@
         <v>42510</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -3055,7 +3073,7 @@
         <v>34</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T15" s="10"/>
     </row>
@@ -3064,13 +3082,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>15</v>
@@ -3101,7 +3119,7 @@
         <v>42515</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -3116,13 +3134,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>15</v>
@@ -3153,7 +3171,7 @@
         <v>42515</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -3168,13 +3186,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>15</v>
@@ -3205,7 +3223,7 @@
         <v>42515</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -3220,13 +3238,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>15</v>
@@ -3257,7 +3275,7 @@
         <v>42515</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -3272,13 +3290,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>15</v>
@@ -3309,7 +3327,7 @@
         <v>42515</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -3319,43 +3337,25 @@
       <c r="S20" s="18"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>64</v>
-      </c>
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="14"/>
       <c r="N21" s="13"/>
       <c r="O21" s="14"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="R21" s="22"/>
       <c r="S21" s="18"/>
       <c r="T21" s="10"/>
     </row>

--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_捷豹组.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_捷豹组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -164,13 +164,6 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>li</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客APP</t>
-    <rPh sb="0" eb="1">
-      <t>zu k</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -232,14 +225,6 @@
     <rPh sb="5" eb="6">
       <t>fang dong</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在测</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -378,22 +363,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东APP前端架构升级</t>
-    <rPh sb="0" eb="1">
-      <t>fang'dong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>qian'duan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jia'gou</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>sheng'ji</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>捷豹组/架构组</t>
     <rPh sb="0" eb="1">
       <t>jie bao zu</t>
@@ -437,13 +406,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>杨正权</t>
-    <rPh sb="0" eb="1">
-      <t>yang'zheng'quan</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>有</t>
     <rPh sb="0" eb="1">
       <t>you</t>
@@ -470,13 +432,102 @@
     <t>通过</t>
   </si>
   <si>
-    <t>在测</t>
+    <t>过长内容短信修改+删除账单推送短信发送</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在测</t>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
     <rPh sb="0" eb="1">
-      <t>zai'ce</t>
+      <t>yi'chu'li</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上线</t>
+    <rPh sb="0" eb="1">
+      <t>yi'shang'x</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约起租日期无法二次修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款金额大于余额报错提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已补录列表可对下期收租日进行时间筛选</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户管理添加租客姓名查询条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复支付</t>
+    <rPh sb="0" eb="1">
+      <t>chong'fu'zhi'fu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP</t>
+    <rPh sb="0" eb="1">
+      <t>zu'k'APP</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <rPh sb="0" eb="1">
+      <t>neng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP/PayAPI</t>
+    <rPh sb="0" eb="1">
+      <t>zu k</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并支付客户端没上，先保证原来支付测试通过</t>
+    <rPh sb="0" eb="1">
+      <t>he'bing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke'hu'd</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mei'shang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bao'z</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yuan'l</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>tong'guo</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -632,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -709,19 +760,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1211,8 +1251,290 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,12 +1625,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1330,8 +1646,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="259">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -1417,6 +1736,53 @@
     <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -1497,6 +1863,53 @@
     <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="258" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1840,10 +2253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T217"/>
+  <dimension ref="A1:T216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1934,78 +2347,84 @@
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>45</v>
+      <c r="B2" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="13">
-        <v>42504</v>
+        <v>42513</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="13">
-        <v>42504</v>
+        <v>42513</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42516</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="18"/>
+      <c r="S2" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>46</v>
+      <c r="B3" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="13">
-        <v>42504</v>
+      <c r="F3" s="37">
+        <v>42513</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="13">
-        <v>42504</v>
+      <c r="H3" s="37">
+        <v>42513</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>33</v>
@@ -2014,10 +2433,14 @@
         <v>35</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22" t="s">
@@ -2030,30 +2453,30 @@
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>48</v>
+      <c r="B4" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>33</v>
@@ -2064,8 +2487,12 @@
       <c r="M4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="N4" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22" t="s">
@@ -2078,30 +2505,30 @@
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>50</v>
+      <c r="B5" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>33</v>
@@ -2112,8 +2539,12 @@
       <c r="M5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="N5" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22" t="s">
@@ -2126,30 +2557,30 @@
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>51</v>
+      <c r="B6" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>55</v>
+      <c r="D6" s="34" t="s">
+        <v>52</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>33</v>
@@ -2160,8 +2591,12 @@
       <c r="M6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="N6" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22" t="s">
@@ -2174,30 +2609,30 @@
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>52</v>
+      <c r="B7" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>33</v>
@@ -2208,15 +2643,19 @@
       <c r="M7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+      <c r="N7" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="34" t="s">
+      <c r="R7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="37" t="s">
-        <v>72</v>
+      <c r="S7" s="35" t="s">
+        <v>67</v>
       </c>
       <c r="T7" s="10"/>
     </row>
@@ -2224,30 +2663,30 @@
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>53</v>
+      <c r="B8" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>55</v>
+      <c r="D8" s="34" t="s">
+        <v>52</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>33</v>
@@ -2258,8 +2697,12 @@
       <c r="M8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="N8" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22" t="s">
@@ -2272,28 +2715,30 @@
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>54</v>
+      <c r="B9" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="13">
-        <v>42504</v>
+        <v>42513</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="H9" s="13">
+        <v>42513</v>
+      </c>
       <c r="I9" s="12"/>
       <c r="J9" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>33</v>
@@ -2302,14 +2747,18 @@
         <v>35</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="34" t="s">
-        <v>71</v>
+      <c r="R9" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
@@ -2318,30 +2767,30 @@
       <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>57</v>
+      <c r="B10" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>33</v>
@@ -2352,8 +2801,12 @@
       <c r="M10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="N10" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22" t="s">
@@ -2366,30 +2819,30 @@
       <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>59</v>
+      <c r="B11" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>33</v>
@@ -2400,8 +2853,12 @@
       <c r="M11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
+      <c r="N11" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22" t="s">
@@ -2414,30 +2871,30 @@
       <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>60</v>
+      <c r="B12" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>33</v>
@@ -2448,8 +2905,12 @@
       <c r="M12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+      <c r="N12" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22" t="s">
@@ -2462,30 +2923,30 @@
       <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>66</v>
+      <c r="B13" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>62</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>33</v>
@@ -2493,11 +2954,15 @@
       <c r="L13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="M13" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" s="13">
+        <v>42513</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22" t="s">
@@ -2510,42 +2975,46 @@
       <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>63</v>
+      <c r="B14" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+      <c r="M14" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="13">
+        <v>42510</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22" t="s">
@@ -2558,163 +3027,319 @@
       <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>64</v>
+      <c r="B15" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H15" s="13">
-        <v>42504</v>
+        <v>42510</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="14" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>35</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="S15" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="N15" s="13">
+        <v>42510</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="T15" s="10"/>
     </row>
     <row r="16" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="13">
+        <v>42513</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="13">
+        <v>42513</v>
+      </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
+      <c r="J16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="13">
+        <v>42515</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="R16" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="13">
+        <v>42513</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="13">
+        <v>42513</v>
+      </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
+      <c r="J17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="13">
+        <v>42515</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S17" s="18"/>
       <c r="T17" s="10"/>
     </row>
     <row r="18" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="21">
+        <v>17</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="13">
+        <v>42513</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="13">
+        <v>42513</v>
+      </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
+      <c r="J18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="13">
+        <v>42515</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="R18" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S18" s="18"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>18</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="13">
+        <v>42513</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="13">
+        <v>42513</v>
+      </c>
       <c r="I19" s="12"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
+      <c r="J19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="13">
+        <v>42515</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="R19" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S19" s="18"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+    <row r="20" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="13">
+        <v>42513</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="13">
+        <v>42513</v>
+      </c>
       <c r="I20" s="12"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="14"/>
+      <c r="J20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="13">
+        <v>42515</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="R20" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="S20" s="18"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -2730,7 +3355,7 @@
       <c r="O21" s="14"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="R21" s="22"/>
       <c r="S21" s="18"/>
       <c r="T21" s="10"/>
     </row>
@@ -2895,7 +3520,7 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
       <c r="J29" s="14"/>
@@ -2961,7 +3586,7 @@
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="12"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="12"/>
       <c r="J32" s="14"/>
@@ -3549,25 +4174,25 @@
       <c r="T58" s="10"/>
     </row>
     <row r="59" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A59" s="21"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="12"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="14"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="17"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="18"/>
+      <c r="S59" s="17"/>
       <c r="T59" s="10"/>
     </row>
     <row r="60" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -3592,27 +4217,26 @@
       <c r="S60" s="17"/>
       <c r="T60" s="10"/>
     </row>
-    <row r="61" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A61" s="9"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="9"/>
+    <row r="61" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+      <c r="A61" s="7"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="17"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="4"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="10"/>
+      <c r="S61" s="4"/>
     </row>
     <row r="62" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
@@ -4753,7 +5377,7 @@
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
       <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
+      <c r="E116" s="7"/>
       <c r="F116" s="5"/>
       <c r="G116" s="7"/>
       <c r="H116" s="5"/>
@@ -4874,11 +5498,11 @@
       <c r="R121" s="7"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
-      <c r="D122" s="12"/>
+      <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="5"/>
       <c r="G122" s="7"/>
@@ -6150,9 +6774,6 @@
       <c r="M182" s="7"/>
       <c r="N182" s="5"/>
       <c r="O182" s="4"/>
-      <c r="P182" s="7"/>
-      <c r="Q182" s="7"/>
-      <c r="R182" s="7"/>
       <c r="S182" s="4"/>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.15">
@@ -6766,24 +7387,6 @@
       <c r="N216" s="5"/>
       <c r="O216" s="4"/>
       <c r="S216" s="4"/>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A217" s="7"/>
-      <c r="B217" s="4"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
-      <c r="E217" s="7"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="7"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="6"/>
-      <c r="J217" s="7"/>
-      <c r="K217" s="7"/>
-      <c r="L217" s="7"/>
-      <c r="M217" s="7"/>
-      <c r="N217" s="5"/>
-      <c r="O217" s="4"/>
-      <c r="S217" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
